--- a/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,09</t>
+          <t>-29,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-10,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,76%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,65%</t>
+          <t>-53,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-21,72%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-24,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 25,38</t>
+          <t>-15,61; 29,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 2,54</t>
+          <t>-54,82; -5,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 6,44</t>
+          <t>-45,14; 14,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 106,69</t>
+          <t>-51,7; 15,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,9; 7,56</t>
+          <t>-31,48; 149,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 20,78</t>
+          <t>-79,66; -12,89</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-65,88; 45,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-69,98; 42,09</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 7,55</t>
+          <t>-17,34; 7,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 9,08</t>
+          <t>-11,9; 13,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 14,65</t>
+          <t>-8,59; 13,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 23,25</t>
+          <t>-12,28; 12,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 27,49</t>
+          <t>-35,72; 22,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 47,88</t>
+          <t>-24,96; 37,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 41,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,49; 32,61</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>-8,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>13,52%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 10,92</t>
+          <t>-12,96; 9,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 18,27</t>
+          <t>-6,72; 15,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 17,63</t>
+          <t>-10,36; 11,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 44,59</t>
+          <t>-9,33; 15,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 68,22</t>
+          <t>-35,58; 38,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 68,53</t>
+          <t>-17,39; 63,44</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-25,78; 44,87</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-21,45; 54,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 9,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 22,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 23,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 29,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; 6,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 5,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 7,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,36; 8,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 19,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-23,27; 16,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 21,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 23,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-29,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,64</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-14,05</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>18,57%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-53,22%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-21,72%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-24,97%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.036924508348553</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-25.32933922568646</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.50529433207406</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-18.88503473625348</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.05381281010772217</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4947858200272325</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1844053689732924</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.33112877209629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,61; 29,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-54,82; -5,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-45,14; 14,47</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-51,7; 15,23</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-31,48; 149,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-79,66; -12,89</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-65,88; 45,38</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-69,98; 42,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.2782446063518</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-47.88792768333914</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-43.2479522179878</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-54.7555189139296</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4062419491755088</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.77912938880774</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6542077464930171</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7273163689335126</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.43403603413785</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.8457007135841096</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.64531657384071</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.655047914887396</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.022339722501659</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.02136467796108407</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5771254562041368</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.259485222824324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-7,91%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,34; 7,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,9; 13,2</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 13,82</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 12,21</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-35,72; 22,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-24,96; 37,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-18,72; 41,14</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,49; 32,61</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.916399177245583</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.031419160901454</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.970109848945117</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4098004226701368</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.09523200510948178</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05002962263919666</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.04871315195497362</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.009152906049465866</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-8,31%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.48227390852328</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.43777272787825</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.964226196064994</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.14593408538819</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3550318908316498</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2261217575766814</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2160805976923703</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2489367242879526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 9,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,72; 15,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,36; 11,93</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,33; 15,98</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-35,58; 38,47</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 63,44</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-25,78; 44,87</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-21,45; 54,36</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.401641896403846</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.41545776819406</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.89588693477621</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.59278572864492</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2031731605272718</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.400988194345924</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3877300197449267</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3086422983875859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.136985467419665</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.475233756549635</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5354884065961407</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.495071973726111</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1794201667522161</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1398128584669927</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.01595054856261056</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.09624344666009313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.74164167755913</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.037265677565288</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.21738014775424</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.857844781517008</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4574185598725066</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1757876786506851</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2770288551795445</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2052870150231069</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.791129010910272</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.42509696381184</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.32215745841048</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.57257816149107</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3039513805224762</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6476674965198305</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4180741361706699</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5911864833921699</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-5,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,52%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; 6,28</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 5,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 7,17</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 8,77</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-25,4; 19,51</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-23,27; 16,01</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-21,57; 21,27</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 23,37</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-4.146022885470457</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.974372614940755</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.4079807018783632</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.084526646242024</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1093135396683396</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.02509018981832983</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01050818558406019</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.04740824473568302</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.76675858153639</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.291123998012711</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.22228280221344</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.06008737415759</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2987791490872433</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2145795702149649</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2231093255879793</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2540047276022229</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.978319539656577</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.157322141252463</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.024076890715906</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.501726794500134</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1220656613771538</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1805296641298052</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1986253411089137</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1931980555892347</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
